--- a/me-docs/16.Xay-dung-chuc-nang-Validate.xlsx
+++ b/me-docs/16.Xay-dung-chuc-nang-Validate.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03AB072-D772-459F-9388-A44BB9FB558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2857B2-9F89-4804-97A9-62FA9ED632A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
+    <sheet name="SliderRequest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>bail: Không cần Validate các rule tiếp theo của trường được Validate khi có 1 rule đã fail</t>
   </si>
@@ -43,6 +44,18 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>php artisan make:request SliderRequest</t>
+  </si>
+  <si>
+    <t>Create SliderRequest</t>
+  </si>
+  <si>
+    <t>resources\lang\en\validation.php</t>
+  </si>
+  <si>
+    <t>app\Http\Requests\SliderRequest.php</t>
   </si>
 </sst>
 </file>
@@ -103,50 +116,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>484800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACF588E-334D-4D86-A330-76162CEAEB95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="762000"/>
-          <a:ext cx="7800000" cy="2057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -170,7 +139,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -214,7 +183,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -258,7 +227,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -302,7 +271,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -311,6 +280,407 @@
         <a:xfrm>
           <a:off x="609600" y="14478001"/>
           <a:ext cx="11487150" cy="5760568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475276</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228BAEB8-19E1-41BC-AE37-227A57ACCB36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="762000"/>
+          <a:ext cx="7790476" cy="2057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46705</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3550EA1-7B50-46BF-B3D8-222BCB549249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="7361905" cy="980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>237181</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>56976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66056A9-F188-46C0-8B88-824053378916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12573000"/>
+          <a:ext cx="7552381" cy="1390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>417981</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>161667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F7AEA14-8657-4E3F-B7E8-F8D641ADF899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14287500"/>
+          <a:ext cx="8952381" cy="2066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>255771</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>180190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E52F71-17ED-40FA-B705-247E68A2DAA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16764000"/>
+          <a:ext cx="11228571" cy="6276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>72521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E6C018-3E8E-43E6-8984-1C0C82C44A12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="23431501"/>
+          <a:ext cx="11696700" cy="5787520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255848</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BBE8B2-FCD3-4FAD-A36A-B1CA111F4020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1905000"/>
+          <a:ext cx="10619048" cy="3676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94171</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>189738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8FB05F-0FC0-4FB3-A266-76761995E7E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6096000"/>
+          <a:ext cx="8628571" cy="6095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179962</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>56857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE716E9-A99C-4A7C-BA74-12C3E34D6C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12382500"/>
+          <a:ext cx="8104762" cy="2342857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,4 +997,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0211A508-5DBB-4891-A6CA-1BFE1617616F}">
+  <dimension ref="A2:B137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>